--- a/admin.xlsx
+++ b/admin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viktoriya.tsacheva\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viktoriya.tsacheva\Desktop\viki\first_repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D4E62ED-EA82-4FA7-8D99-DD76B6B43B04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A9B196-92DC-4F82-8636-E23767E3F49E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{6A99DEB8-37E2-42DD-94B1-855A8674DE43}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="44">
   <si>
     <t>Област</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>(All)</t>
+  </si>
+  <si>
+    <t>jhg</t>
   </si>
 </sst>
 </file>
@@ -2559,7 +2562,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E7CABF6D-4414-44BF-8190-06A413DB3A99}" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Област">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E7CABF6D-4414-44BF-8190-06A413DB3A99}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Област">
   <location ref="A4:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -3215,13 +3218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF7A379-DF42-4271-891C-F73EAEA3489C}">
-  <dimension ref="A2:B14"/>
+  <dimension ref="A2:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-      <pivotSelection pane="bottomRight" showHeader="1" extendable="1" activeRow="3" activeCol="1" previousRow="3" previousCol="1" click="1" r:id="rId1">
-        <pivotArea dataOnly="0" outline="0" axis="axisValues" fieldPosition="0"/>
-      </pivotSelection>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3340,6 +3340,11 @@
       </c>
       <c r="B14" s="10">
         <v>1662535</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
